--- a/Bibsam_tidskriftslistor/scifree_data_publicera.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_publicera.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24ED0EC1-EDC5-4098-8724-510DC69C60FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{24ED0EC1-EDC5-4098-8724-510DC69C60FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D31DAB4-2202-4C50-9037-A5C43DCD4D82}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="153">
   <si>
     <t>Publicera</t>
   </si>
@@ -460,6 +460,30 @@
   </si>
   <si>
     <t>HYBRID</t>
+  </si>
+  <si>
+    <t>2002–0015</t>
+  </si>
+  <si>
+    <t>0280-6215</t>
+  </si>
+  <si>
+    <t>Forum navale</t>
+  </si>
+  <si>
+    <t>https://publicera.kb.se/fn</t>
+  </si>
+  <si>
+    <t>2001-9416</t>
+  </si>
+  <si>
+    <t>0582-3234</t>
+  </si>
+  <si>
+    <t>Scripta Islandica</t>
+  </si>
+  <si>
+    <t>https://publicera.kb.se/scis</t>
   </si>
 </sst>
 </file>
@@ -515,16 +539,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24C3C40C-867E-4DA3-B275-AE6551D9E489}" name="Table1" displayName="Table1" ref="A1:G36" totalsRowShown="0">
-  <autoFilter ref="A1:G36" xr:uid="{24C3C40C-867E-4DA3-B275-AE6551D9E489}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12AF23A6-2279-424C-AB87-3065524107F9}" name="Table1" displayName="Table1" ref="A1:G38" totalsRowShown="0">
+  <autoFilter ref="A1:G38" xr:uid="{12AF23A6-2279-424C-AB87-3065524107F9}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BBC1E902-DD17-44EB-BFEA-E411779E7C69}" name="Imprint"/>
-    <tableColumn id="2" xr3:uid="{FE775E5F-9F7A-4D4E-AF74-4C6A99CA9DC3}" name="ISSN Electronic"/>
-    <tableColumn id="3" xr3:uid="{5EC23937-CDC8-4BD2-94F3-9E6AD96E2EF4}" name="ISSN Print"/>
-    <tableColumn id="4" xr3:uid="{2B6EB485-37FF-4013-BC7A-A4B27C16775D}" name="Journal Name"/>
-    <tableColumn id="5" xr3:uid="{8D8FB7FB-EAF4-4219-9A60-D661CD4E95B8}" name="JournalURL"/>
-    <tableColumn id="6" xr3:uid="{4E32C0CC-57F9-445E-9449-75418644419C}" name="Publishing model"/>
-    <tableColumn id="7" xr3:uid="{69CD6624-E8D8-42AD-9C13-E2CC3B2E7EC4}" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{8B45EBCE-EF00-4FA6-A6ED-59A00E01B863}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{A9EB4BBA-142C-4732-A2FA-1E710C2E2A84}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{BC2D1A63-1406-44B0-8054-8DC9F44098BE}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{36E67E0C-0BD5-4072-9887-F002C902EB49}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{E10FDE9C-BC07-42F8-BE24-5205C63032BC}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{306FFCAE-407B-47C3-80EB-9C4A489C7868}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{AA367428-EB06-4784-88F5-2E9714CB5458}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -846,20 +870,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630E83F9-1EB3-438E-B27E-DC719B2EF181}">
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="65.42578125" customWidth="1"/>
-    <col min="5" max="5" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
@@ -1041,22 +1065,22 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="F9" t="s">
         <v>126</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1064,22 +1088,22 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F10" t="s">
         <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1087,22 +1111,22 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
         <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1110,19 +1134,22 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s">
         <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1130,22 +1157,19 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F13" t="s">
         <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1153,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F14" t="s">
         <v>126</v>
@@ -1176,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
         <v>126</v>
@@ -1199,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
         <v>126</v>
@@ -1222,16 +1246,16 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="F17" t="s">
         <v>126</v>
@@ -1245,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
         <v>126</v>
@@ -1268,16 +1292,16 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
         <v>126</v>
@@ -1291,16 +1315,16 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
         <v>126</v>
@@ -1314,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
         <v>126</v>
@@ -1337,13 +1361,16 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F22" t="s">
         <v>126</v>
@@ -1357,16 +1384,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s">
         <v>126</v>
@@ -1380,22 +1404,22 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
         <v>126</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1403,22 +1427,22 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
         <v>126</v>
       </c>
       <c r="G25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1426,13 +1450,16 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>149</v>
+      </c>
+      <c r="C26" t="s">
+        <v>150</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="F26" t="s">
         <v>126</v>
@@ -1446,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F27" t="s">
         <v>126</v>
@@ -1466,16 +1493,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F28" t="s">
         <v>126</v>
@@ -1489,16 +1513,16 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
         <v>126</v>
@@ -1512,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F30" t="s">
         <v>126</v>
@@ -1535,22 +1559,22 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="F31" t="s">
         <v>126</v>
       </c>
       <c r="G31" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1558,22 +1582,22 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s">
         <v>126</v>
       </c>
       <c r="G32" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1604,16 +1628,16 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="F34" t="s">
         <v>126</v>
@@ -1627,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E35" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="F35" t="s">
         <v>126</v>
@@ -1650,29 +1674,71 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
         <v>33</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>143</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E38" t="s">
         <v>97</v>
       </c>
-      <c r="F36" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="F38" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G36">
-    <sortCondition ref="D2:D36"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>